--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H2">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.60726733333333</v>
+        <v>27.85106533333333</v>
       </c>
       <c r="N2">
-        <v>58.82180199999999</v>
+        <v>83.553196</v>
       </c>
       <c r="O2">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="P2">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="Q2">
-        <v>1011.569835851495</v>
+        <v>1523.303667094051</v>
       </c>
       <c r="R2">
-        <v>9104.128522663459</v>
+        <v>13709.73300384646</v>
       </c>
       <c r="S2">
-        <v>0.03987917071740717</v>
+        <v>0.05196422792920082</v>
       </c>
       <c r="T2">
-        <v>0.03987917071740717</v>
+        <v>0.05196422792920082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H3">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>212.130093</v>
       </c>
       <c r="O3">
-        <v>0.5445032490412232</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="P3">
-        <v>0.544503249041223</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="Q3">
-        <v>3648.041985438877</v>
+        <v>3867.458864983479</v>
       </c>
       <c r="R3">
-        <v>32832.37786894989</v>
+        <v>34807.12978485131</v>
       </c>
       <c r="S3">
-        <v>0.1438169506103615</v>
+        <v>0.1319300401542338</v>
       </c>
       <c r="T3">
-        <v>0.1438169506103615</v>
+        <v>0.1319300401542338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H4">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.589065333333332</v>
+        <v>15.018964</v>
       </c>
       <c r="N4">
-        <v>28.767196</v>
+        <v>45.056892</v>
       </c>
       <c r="O4">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="P4">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="Q4">
-        <v>494.7149993063422</v>
+        <v>821.4566539317133</v>
       </c>
       <c r="R4">
-        <v>4452.43499375708</v>
+        <v>7393.10988538542</v>
       </c>
       <c r="S4">
-        <v>0.01950317537611501</v>
+        <v>0.02802222676998956</v>
       </c>
       <c r="T4">
-        <v>0.01950317537611501</v>
+        <v>0.02802222676998956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H5">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.95517733333334</v>
+        <v>36.00403133333333</v>
       </c>
       <c r="N5">
-        <v>89.865532</v>
+        <v>108.012094</v>
       </c>
       <c r="O5">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="P5">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="Q5">
-        <v>1545.434827956262</v>
+        <v>1969.227112278354</v>
       </c>
       <c r="R5">
-        <v>13908.91345160636</v>
+        <v>17723.04401050519</v>
       </c>
       <c r="S5">
-        <v>0.06092575831387515</v>
+        <v>0.06717594706642059</v>
       </c>
       <c r="T5">
-        <v>0.06092575831387515</v>
+        <v>0.06717594706642059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.60726733333333</v>
+        <v>27.85106533333333</v>
       </c>
       <c r="N6">
-        <v>58.82180199999999</v>
+        <v>83.553196</v>
       </c>
       <c r="O6">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="P6">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="Q6">
-        <v>378.835018594991</v>
+        <v>538.114703802018</v>
       </c>
       <c r="R6">
-        <v>3409.515167354919</v>
+        <v>4843.032334218161</v>
       </c>
       <c r="S6">
-        <v>0.01493483281612962</v>
+        <v>0.01835662561868958</v>
       </c>
       <c r="T6">
-        <v>0.01493483281612962</v>
+        <v>0.01835662561868958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>212.130093</v>
       </c>
       <c r="O7">
-        <v>0.5445032490412232</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="P7">
-        <v>0.544503249041223</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="Q7">
-        <v>1366.199351155753</v>
+        <v>1366.199351155754</v>
       </c>
       <c r="R7">
         <v>12295.79416040178</v>
       </c>
       <c r="S7">
-        <v>0.05385974870720604</v>
+        <v>0.04660495212725081</v>
       </c>
       <c r="T7">
-        <v>0.05385974870720602</v>
+        <v>0.04660495212725081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.589065333333332</v>
+        <v>15.018964</v>
       </c>
       <c r="N8">
-        <v>28.767196</v>
+        <v>45.056892</v>
       </c>
       <c r="O8">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="P8">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="Q8">
-        <v>185.2718016286844</v>
+        <v>290.1837063518134</v>
       </c>
       <c r="R8">
-        <v>1667.44621465816</v>
+        <v>2611.65335716632</v>
       </c>
       <c r="S8">
-        <v>0.007303979957105578</v>
+        <v>0.00989899294798645</v>
       </c>
       <c r="T8">
-        <v>0.007303979957105578</v>
+        <v>0.00989899294798645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.95517733333334</v>
+        <v>36.00403133333333</v>
       </c>
       <c r="N9">
-        <v>89.865532</v>
+        <v>108.012094</v>
       </c>
       <c r="O9">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="P9">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="Q9">
-        <v>578.7685743845244</v>
+        <v>695.6394100094712</v>
       </c>
       <c r="R9">
-        <v>5208.91716946072</v>
+        <v>6260.75469008524</v>
       </c>
       <c r="S9">
-        <v>0.02281682387684326</v>
+        <v>0.02373024213039927</v>
       </c>
       <c r="T9">
-        <v>0.02281682387684326</v>
+        <v>0.02373024213039927</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H10">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.60726733333333</v>
+        <v>27.85106533333333</v>
       </c>
       <c r="N10">
-        <v>58.82180199999999</v>
+        <v>83.553196</v>
       </c>
       <c r="O10">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="P10">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="Q10">
-        <v>236.1678684122766</v>
+        <v>307.0222902342427</v>
       </c>
       <c r="R10">
-        <v>2125.51081571049</v>
+        <v>2763.200612108184</v>
       </c>
       <c r="S10">
-        <v>0.009310458268510468</v>
+        <v>0.01047340501681625</v>
       </c>
       <c r="T10">
-        <v>0.009310458268510468</v>
+        <v>0.01047340501681625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H11">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>212.130093</v>
       </c>
       <c r="O11">
-        <v>0.5445032490412232</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="P11">
-        <v>0.544503249041223</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="Q11">
-        <v>851.6963130423651</v>
+        <v>779.4874415152581</v>
       </c>
       <c r="R11">
-        <v>7665.266817381285</v>
+        <v>7015.386973637322</v>
       </c>
       <c r="S11">
-        <v>0.03357646843889184</v>
+        <v>0.02659053736548748</v>
       </c>
       <c r="T11">
-        <v>0.03357646843889184</v>
+        <v>0.02659053736548747</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H12">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.589065333333332</v>
+        <v>15.018964</v>
       </c>
       <c r="N12">
-        <v>28.767196</v>
+        <v>45.056892</v>
       </c>
       <c r="O12">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="P12">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="Q12">
-        <v>115.4994768694467</v>
+        <v>165.564823788152</v>
       </c>
       <c r="R12">
-        <v>1039.49529182502</v>
+        <v>1490.083414093368</v>
       </c>
       <c r="S12">
-        <v>0.004553341937060366</v>
+        <v>0.00564788782843146</v>
       </c>
       <c r="T12">
-        <v>0.004553341937060366</v>
+        <v>0.00564788782843146</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H13">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.95517733333334</v>
+        <v>36.00403133333333</v>
       </c>
       <c r="N13">
-        <v>89.865532</v>
+        <v>108.012094</v>
       </c>
       <c r="O13">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="P13">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="Q13">
-        <v>360.8075647899267</v>
+        <v>396.8982882818307</v>
       </c>
       <c r="R13">
-        <v>3247.26808310934</v>
+        <v>3572.084594536476</v>
       </c>
       <c r="S13">
-        <v>0.01422413555884419</v>
+        <v>0.01353933136413392</v>
       </c>
       <c r="T13">
-        <v>0.01422413555884419</v>
+        <v>0.01353933136413392</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H14">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.60726733333333</v>
+        <v>27.85106533333333</v>
       </c>
       <c r="N14">
-        <v>58.82180199999999</v>
+        <v>83.553196</v>
       </c>
       <c r="O14">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="P14">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="Q14">
-        <v>2203.317007910933</v>
+        <v>3089.620677311606</v>
       </c>
       <c r="R14">
-        <v>19829.8530711984</v>
+        <v>27806.58609580445</v>
       </c>
       <c r="S14">
-        <v>0.08686148201432353</v>
+        <v>0.1053957635360169</v>
       </c>
       <c r="T14">
-        <v>0.08686148201432353</v>
+        <v>0.1053957635360169</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H15">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>212.130093</v>
       </c>
       <c r="O15">
-        <v>0.5445032490412232</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="P15">
-        <v>0.544503249041223</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="Q15">
-        <v>7945.860648686486</v>
+        <v>7844.122702533531</v>
       </c>
       <c r="R15">
-        <v>71512.74583817838</v>
+        <v>70597.10432280178</v>
       </c>
       <c r="S15">
-        <v>0.3132500812847638</v>
+        <v>0.2675853730442733</v>
       </c>
       <c r="T15">
-        <v>0.3132500812847637</v>
+        <v>0.2675853730442733</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H16">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.589065333333332</v>
+        <v>15.018964</v>
       </c>
       <c r="N16">
-        <v>28.767196</v>
+        <v>45.056892</v>
       </c>
       <c r="O16">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="P16">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="Q16">
-        <v>1077.546930927199</v>
+        <v>1666.108680972489</v>
       </c>
       <c r="R16">
-        <v>9697.922378344791</v>
+        <v>14994.9781287524</v>
       </c>
       <c r="S16">
-        <v>0.04248018919849685</v>
+        <v>0.05683571379962358</v>
       </c>
       <c r="T16">
-        <v>0.04248018919849685</v>
+        <v>0.05683571379962358</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H17">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.95517733333334</v>
+        <v>36.00403133333333</v>
       </c>
       <c r="N17">
-        <v>89.865532</v>
+        <v>108.012094</v>
       </c>
       <c r="O17">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="P17">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="Q17">
-        <v>3366.137186354207</v>
+        <v>3994.059054570752</v>
       </c>
       <c r="R17">
-        <v>30295.23467718786</v>
+        <v>35946.53149113677</v>
       </c>
       <c r="S17">
-        <v>0.1327034029240658</v>
+        <v>0.1362487333010461</v>
       </c>
       <c r="T17">
-        <v>0.1327034029240658</v>
+        <v>0.1362487333010461</v>
       </c>
     </row>
   </sheetData>
